--- a/testData/command_rule_test_data.xlsx
+++ b/testData/command_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_command_rule" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -338,22 +338,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全选删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你确定要删除该选项吗？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TELNET</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">test-F12-S29-001
@@ -368,23 +357,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>协议类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单点登录账号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -412,16 +385,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>账号</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>secureCRT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cisco</t>
@@ -436,15 +401,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>en</t>
+    <t>cyyf</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>en</t>
+    <t>选择序号为2的进行删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>en</t>
+    <t>选择序号为3的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XEC5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17380,10 +17357,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -17479,7 +17456,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17808,9 +17785,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -17841,7 +17820,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -17855,14 +17834,35 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>63</v>
+      <c r="C3" s="14">
+        <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
       <c r="E3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -17874,10 +17874,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17886,14 +17886,11 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17901,109 +17898,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" s="15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>82</v>
+      <c r="E2" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="21" t="s">
-        <v>66</v>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27">
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>82</v>
+      <c r="E3" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>66</v>
+      <c r="J3" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="4:4">
